--- a/IAI_TEMPLATE.xlsx
+++ b/IAI_TEMPLATE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F08BC9-6FA7-4310-AFD2-26BC34B11E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A80CE-1284-4B67-9EE2-CEA761AB3CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14508" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14533" uniqueCount="94">
   <si>
     <t>serial</t>
   </si>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +412,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -487,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +583,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,19 +877,19 @@
   <dimension ref="A1:H2884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -71079,15 +71100,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3ADFAD-59C4-4AF5-B4C7-8F600D77F8B4}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -71221,278 +71243,404 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="29">
         <v>1.6263100773692971E+19</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="30">
         <v>44392.369085648148</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>1.626310114420215E+19</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="30">
         <v>44392.369502314818</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>1.6263101874812819E+19</v>
-      </c>
-      <c r="B8" s="26">
-        <v>44392.370324074072</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="29">
+        <v>1.6263100773692971E+19</v>
+      </c>
+      <c r="B8" s="30">
+        <v>44392.369444444441</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>1.6263102235836209E+19</v>
-      </c>
-      <c r="B9" s="27">
-        <v>44392.370833333334</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="29">
+        <v>1.626310114420215E+19</v>
+      </c>
+      <c r="B9" s="30">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>11</v>
+      <c r="D9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
-        <v>1.626310235372713E+19</v>
+        <v>1.6263101874812819E+19</v>
       </c>
       <c r="B10" s="26">
-        <v>44392.370949074073</v>
+        <v>44392.370324074072</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>1.6263102235836209E+19</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44392.370833333334</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>1.626310235372713E+19</v>
+      </c>
+      <c r="B12" s="26">
+        <v>44392.370949074073</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H15" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C16" s="19">
         <v>44392.363206018519</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D16" s="19">
         <v>44392.367685185185</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E16" s="18">
         <v>6</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C17" s="19">
         <v>44392.367685185185</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D17" s="19">
         <v>44392.369085648148</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E17" s="18">
         <v>2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F17" s="18">
         <v>100</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="H17" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C18" s="23">
         <v>44392.369085648148</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D18" s="23">
         <v>44392.369502314818</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E18" s="24">
         <v>1</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H18" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="D19" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="G19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="D20" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C21" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="D21" s="23">
+        <v>44392.369502314818</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="26">
         <v>44392.370324074072</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D22" s="27">
         <v>44392.370833333334</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E22" s="28">
         <v>1</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H22" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C23" s="27">
         <v>44392.370833333334</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D23" s="26">
         <v>44392.370949074073</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E23" s="28">
         <v>1</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H23" s="28" t="s">
         <v>92</v>
       </c>
     </row>
